--- a/biology/Médecine/Aplasie/Aplasie.xlsx
+++ b/biology/Médecine/Aplasie/Aplasie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’aplasie est l'arrêt ou l’insuffisance de développement d'un tissu ou d'un organe survenant avant ou après la naissance par défaut de développement d’une ébauche embryonnaire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’aplasie est l'arrêt ou l’insuffisance de développement d'un tissu ou d'un organe survenant avant ou après la naissance par défaut de développement d’une ébauche embryonnaire.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Formé à partir du grec ancien avec le « a » privatif et «  plassein » dans le sens de façonner.
 </t>
@@ -542,11 +556,13 @@
           <t>Types d’aplasies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les aplasies peuvent être acquises ou constitutionnelles, en particulier au niveau de la moelle osseuse[2].
-De nombreux organes peuvent être atteints d’aplasie. Sans vouloir être exhaustif on citera [1] : l’aplasie rénale, les différentes aplasies médullaires affectant une ou plusieurs lignées cellulaires de la moelle osseuse, les aplasies d’un ou plusieurs os (clavicule, radius, fémur, péroné [ou fibula]) et de leurs annexes vasculo-nerveuses, les aplasies des muscles de l’abdomen constitutive du laparoschisis, l’aplasie d’une ou plusieurs zones cutanées.
-Par ailleurs l’aplasie peut être la conséquence temporaire, recherchée ou indésirable, d’un traitement médicamenteux[3]. Il en est ainsi des aplasies médullaires temporaires consécutives aux chimiothérapies anti-cancéreuses[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les aplasies peuvent être acquises ou constitutionnelles, en particulier au niveau de la moelle osseuse.
+De nombreux organes peuvent être atteints d’aplasie. Sans vouloir être exhaustif on citera  : l’aplasie rénale, les différentes aplasies médullaires affectant une ou plusieurs lignées cellulaires de la moelle osseuse, les aplasies d’un ou plusieurs os (clavicule, radius, fémur, péroné [ou fibula]) et de leurs annexes vasculo-nerveuses, les aplasies des muscles de l’abdomen constitutive du laparoschisis, l’aplasie d’une ou plusieurs zones cutanées.
+Par ailleurs l’aplasie peut être la conséquence temporaire, recherchée ou indésirable, d’un traitement médicamenteux. Il en est ainsi des aplasies médullaires temporaires consécutives aux chimiothérapies anti-cancéreuses.
 </t>
         </is>
       </c>
